--- a/AdvCompProS01-268.xlsx
+++ b/AdvCompProS01-268.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-WED\Desktop\adv-fullstack-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F7028-C923-468A-9333-7DBAE44A579E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13469FD9-3C21-43F8-9ECD-30575214D366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,9 @@
       <c r="J10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
@@ -1280,7 +1282,9 @@
       <c r="J11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
@@ -1316,7 +1320,9 @@
       <c r="J12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -1352,7 +1358,9 @@
       <c r="J13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -1388,7 +1396,9 @@
       <c r="J14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
@@ -1424,7 +1434,9 @@
       <c r="J15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
@@ -1460,7 +1472,9 @@
       <c r="J16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
@@ -1496,7 +1510,9 @@
       <c r="J17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1532,7 +1548,9 @@
       <c r="J18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1568,7 +1586,9 @@
       <c r="J19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
@@ -1604,7 +1624,9 @@
       <c r="J20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
@@ -1640,7 +1662,9 @@
       <c r="J21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
@@ -1676,7 +1700,9 @@
       <c r="J22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
@@ -1712,7 +1738,9 @@
       <c r="J23" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
@@ -1748,7 +1776,9 @@
       <c r="J24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
@@ -1784,7 +1814,9 @@
       <c r="J25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1839,6 +1871,9 @@
       </c>
       <c r="J29" t="s">
         <v>50</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/AdvCompProS01-268.xlsx
+++ b/AdvCompProS01-268.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-WED\Desktop\adv-fullstack-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13469FD9-3C21-43F8-9ECD-30575214D366}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EBF249-2134-40AC-83EB-4A70C59A4053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -612,6 +612,18 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -624,19 +636,7 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -976,7 +976,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:T26"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,137 +992,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,24 +1138,24 @@
       <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1247,7 +1247,9 @@
       <c r="K10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1285,7 +1287,9 @@
       <c r="K11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1323,7 +1327,9 @@
       <c r="K12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1361,7 +1367,9 @@
       <c r="K13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1399,7 +1407,9 @@
       <c r="K14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1437,7 +1447,9 @@
       <c r="K15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1475,7 +1487,9 @@
       <c r="K16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1513,7 +1527,9 @@
       <c r="K17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1551,7 +1567,9 @@
       <c r="K18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1589,7 +1607,9 @@
       <c r="K19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1627,7 +1647,9 @@
       <c r="K20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1665,7 +1687,9 @@
       <c r="K21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1703,7 +1727,9 @@
       <c r="K22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1741,7 +1767,9 @@
       <c r="K23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1779,7 +1807,9 @@
       <c r="K24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -1817,7 +1847,9 @@
       <c r="K25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -1828,36 +1860,36 @@
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
     </row>
     <row r="27" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
@@ -1875,20 +1907,23 @@
       <c r="K29" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="L29" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="E26:T26"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="F5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/AdvCompProS01-268.xlsx
+++ b/AdvCompProS01-268.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-WED\Desktop\adv-fullstack-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EBF249-2134-40AC-83EB-4A70C59A4053}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40E00F-0078-4FB4-A080-07DECF749378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -612,18 +612,6 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -636,7 +624,19 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="18" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,137 +992,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="20" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:20" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,24 +1138,24 @@
       <c r="D8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1568,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
@@ -1860,36 +1860,36 @@
       <c r="T25" s="7"/>
     </row>
     <row r="26" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
     </row>
     <row r="27" spans="1:20" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
@@ -1913,17 +1913,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E8:T8"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F5:T5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="I1:T1"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E8:T8"/>
-    <mergeCell ref="E26:T26"/>
-    <mergeCell ref="F4:T4"/>
-    <mergeCell ref="F5:T5"/>
   </mergeCells>
   <pageMargins left="0.437" right="8.2699999999999996E-2" top="0.35039999999999999" bottom="7.8700000000000006E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/AdvCompProS01-268.xlsx
+++ b/AdvCompProS01-268.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rach-WED\Desktop\adv-fullstack-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F40E00F-0078-4FB4-A080-07DECF749378}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38CD628-FB02-431C-9831-F9379AEA59AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="54">
   <si>
     <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
   </si>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1250,9 @@
       <c r="L10" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1290,7 +1292,9 @@
       <c r="L11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1330,7 +1334,9 @@
       <c r="L12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1370,7 +1376,9 @@
       <c r="L13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1410,7 +1418,9 @@
       <c r="L14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1450,7 +1460,9 @@
       <c r="L15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1490,7 +1502,9 @@
       <c r="L16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1530,7 +1544,9 @@
       <c r="L17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1570,7 +1586,9 @@
       <c r="L18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -1610,7 +1628,9 @@
       <c r="L19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
@@ -1650,7 +1670,9 @@
       <c r="L20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -1690,7 +1712,9 @@
       <c r="L21" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
@@ -1730,7 +1754,9 @@
       <c r="L22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="7"/>
+      <c r="M22" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -1770,7 +1796,9 @@
       <c r="L23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -1810,7 +1838,9 @@
       <c r="L24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -1850,7 +1880,9 @@
       <c r="L25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -1908,6 +1940,9 @@
         <v>51</v>
       </c>
       <c r="L29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>51</v>
       </c>
     </row>
